--- a/CRONOGRAMA/Itinerario.xlsx
+++ b/CRONOGRAMA/Itinerario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\PPP\PPP-NRC24421\CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1BE1B8-BAB5-4B81-B94E-C0BDC4FEA848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE794DC-BE4D-49C1-812A-B071A71BFD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1543,150 +1543,120 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1697,6 +1667,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1712,67 +1685,94 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1992,14 +1992,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83:G84"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110:B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="2" max="2" width="75.19921875" customWidth="1"/>
     <col min="3" max="3" width="71.3984375" style="61" customWidth="1"/>
     <col min="4" max="4" width="43.09765625" style="61" customWidth="1"/>
     <col min="5" max="5" width="42.59765625" style="61" customWidth="1"/>
@@ -2009,14 +2009,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2109,10 +2109,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="36.6" customHeight="1" thickTop="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="122" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2124,16 +2124,16 @@
       <c r="E9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="82">
         <v>5</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="42.6" customHeight="1">
-      <c r="A10" s="119"/>
-      <c r="B10" s="132"/>
+      <c r="A10" s="110"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="12" t="s">
         <v>39</v>
       </c>
@@ -2143,12 +2143,12 @@
       <c r="E10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="138"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1">
-      <c r="A11" s="120"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="124"/>
       <c r="C11" s="13" t="s">
         <v>38</v>
       </c>
@@ -2158,11 +2158,11 @@
       <c r="E11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="123"/>
-      <c r="G11" s="139"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="134"/>
     </row>
     <row r="12" spans="1:7" ht="43.2" customHeight="1" thickTop="1">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="99" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2177,16 +2177,16 @@
       <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="136">
+      <c r="F12" s="101">
         <v>6</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="112" t="s">
+      <c r="A13" s="125"/>
+      <c r="B13" s="127" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2198,12 +2198,12 @@
       <c r="E13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="106"/>
-      <c r="G13" s="140"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="136"/>
     </row>
     <row r="14" spans="1:7" ht="40.799999999999997" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="125"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="10" t="s">
         <v>64</v>
       </c>
@@ -2213,12 +2213,12 @@
       <c r="E14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="106"/>
-      <c r="G14" s="140"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="136"/>
     </row>
     <row r="15" spans="1:7" ht="42" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="125"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="44" t="s">
         <v>65</v>
       </c>
@@ -2228,12 +2228,12 @@
       <c r="E15" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="140"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="136"/>
     </row>
     <row r="16" spans="1:7" ht="42" customHeight="1" thickBot="1">
-      <c r="A16" s="135"/>
-      <c r="B16" s="114"/>
+      <c r="A16" s="126"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="30" t="s">
         <v>66</v>
       </c>
@@ -2243,8 +2243,8 @@
       <c r="E16" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="137"/>
-      <c r="G16" s="141"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="137"/>
     </row>
     <row r="17" spans="1:8" ht="40.799999999999997" customHeight="1" thickTop="1" thickBot="1">
       <c r="A17" s="18" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="35.4" customHeight="1" thickTop="1">
-      <c r="A20" s="103" t="s">
+      <c r="A20" s="90" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -2331,15 +2331,15 @@
       <c r="E20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="97">
+      <c r="F20" s="78">
         <v>5</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="135">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A21" s="105"/>
+    <row r="21" spans="1:8" ht="52.2" customHeight="1" thickBot="1">
+      <c r="A21" s="91"/>
       <c r="B21" s="31" t="s">
         <v>44</v>
       </c>
@@ -2352,8 +2352,8 @@
       <c r="E21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="80"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A22" s="51" t="s">
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="37.799999999999997" customHeight="1" thickTop="1">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="92" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="37" t="s">
@@ -2463,16 +2463,16 @@
       <c r="E26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="142">
+      <c r="F26" s="94">
         <v>5</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="132">
         <v>1</v>
       </c>
       <c r="H26" s="47"/>
     </row>
-    <row r="27" spans="1:8" ht="39" customHeight="1" thickBot="1">
-      <c r="A27" s="120"/>
+    <row r="27" spans="1:8" ht="61.8" customHeight="1" thickBot="1">
+      <c r="A27" s="93"/>
       <c r="B27" s="38" t="s">
         <v>44</v>
       </c>
@@ -2485,15 +2485,15 @@
       <c r="E27" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="82"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="96" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2505,16 +2505,16 @@
       <c r="E28" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="146">
+      <c r="F28" s="100">
         <v>5</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="41.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A29" s="145"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="42" t="s">
         <v>58</v>
       </c>
@@ -2524,11 +2524,11 @@
       <c r="E29" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="79"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="149"/>
     </row>
     <row r="30" spans="1:8" ht="41.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A30" s="145"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="45" t="s">
         <v>59</v>
       </c>
@@ -2541,11 +2541,11 @@
       <c r="E30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="146"/>
-      <c r="G30" s="79"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="149"/>
     </row>
     <row r="31" spans="1:8" ht="41.4" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="134"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="56" t="s">
         <v>62</v>
       </c>
@@ -2558,14 +2558,14 @@
       <c r="E31" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="136"/>
-      <c r="G31" s="80"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="147"/>
     </row>
     <row r="32" spans="1:8" ht="46.2" customHeight="1" thickTop="1">
-      <c r="A32" s="99" t="s">
+      <c r="A32" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="106" t="s">
         <v>67</v>
       </c>
       <c r="C32" s="11" t="s">
@@ -2577,16 +2577,16 @@
       <c r="E32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="92">
+      <c r="F32" s="82">
         <v>5</v>
       </c>
-      <c r="G32" s="85">
+      <c r="G32" s="132">
         <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="46.2" customHeight="1">
-      <c r="A33" s="119"/>
-      <c r="B33" s="108"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="12" t="s">
         <v>69</v>
       </c>
@@ -2596,12 +2596,12 @@
       <c r="E33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="122"/>
-      <c r="G33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="150"/>
     </row>
     <row r="34" spans="1:7" ht="46.2" customHeight="1">
-      <c r="A34" s="119"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="110"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="12" t="s">
         <v>70</v>
       </c>
@@ -2611,12 +2611,12 @@
       <c r="E34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="122"/>
-      <c r="G34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="150"/>
     </row>
     <row r="35" spans="1:7" ht="46.2" customHeight="1">
-      <c r="A35" s="119"/>
-      <c r="B35" s="108"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="12" t="s">
         <v>71</v>
       </c>
@@ -2626,12 +2626,12 @@
       <c r="E35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="122"/>
-      <c r="G35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:7" ht="46.2" customHeight="1" thickBot="1">
-      <c r="A36" s="120"/>
-      <c r="B36" s="121"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="13" t="s">
         <v>72</v>
       </c>
@@ -2641,14 +2641,14 @@
       <c r="E36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="123"/>
-      <c r="G36" s="82"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="148"/>
     </row>
     <row r="37" spans="1:7" ht="40.200000000000003" customHeight="1" thickTop="1">
-      <c r="A37" s="103" t="s">
+      <c r="A37" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="115" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -2660,16 +2660,16 @@
       <c r="E37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F37" s="78">
         <v>5</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40.200000000000003" customHeight="1">
-      <c r="A38" s="124"/>
-      <c r="B38" s="126"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="10" t="s">
         <v>75</v>
       </c>
@@ -2679,12 +2679,12 @@
       <c r="E38" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="128"/>
-      <c r="G38" s="79"/>
+      <c r="F38" s="118"/>
+      <c r="G38" s="149"/>
     </row>
     <row r="39" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="127"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="14" t="s">
         <v>76</v>
       </c>
@@ -2694,14 +2694,14 @@
       <c r="E39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="116"/>
-      <c r="G39" s="80"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="147"/>
     </row>
     <row r="40" spans="1:7" ht="49.2" customHeight="1" thickTop="1">
-      <c r="A40" s="99" t="s">
+      <c r="A40" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -2713,16 +2713,16 @@
       <c r="E40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="92">
+      <c r="F40" s="82">
         <v>5</v>
       </c>
-      <c r="G40" s="85">
+      <c r="G40" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.2" customHeight="1" thickBot="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="109"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="107"/>
       <c r="C41" s="59" t="s">
         <v>78</v>
       </c>
@@ -2732,14 +2732,14 @@
       <c r="E41" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="93"/>
-      <c r="G41" s="82"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="148"/>
     </row>
     <row r="42" spans="1:7" ht="40.200000000000003" customHeight="1" thickTop="1">
-      <c r="A42" s="103" t="s">
+      <c r="A42" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="117" t="s">
+      <c r="B42" s="108" t="s">
         <v>73</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -2751,16 +2751,16 @@
       <c r="E42" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="78">
         <v>5</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="42" customHeight="1" thickBot="1">
-      <c r="A43" s="105"/>
-      <c r="B43" s="118"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="109"/>
       <c r="C43" s="30" t="s">
         <v>78</v>
       </c>
@@ -2770,14 +2770,14 @@
       <c r="E43" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="98"/>
-      <c r="G43" s="80"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="147"/>
     </row>
     <row r="44" spans="1:7" ht="45" customHeight="1" thickTop="1">
-      <c r="A44" s="99" t="s">
+      <c r="A44" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="107" t="s">
+      <c r="B44" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -2789,16 +2789,16 @@
       <c r="E44" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="92">
+      <c r="F44" s="82">
         <v>5</v>
       </c>
-      <c r="G44" s="85">
+      <c r="G44" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="52.8" customHeight="1" thickBot="1">
-      <c r="A45" s="101"/>
-      <c r="B45" s="109"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="107"/>
       <c r="C45" s="59" t="s">
         <v>78</v>
       </c>
@@ -2808,14 +2808,14 @@
       <c r="E45" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="82"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="148"/>
     </row>
     <row r="46" spans="1:7" ht="42" customHeight="1" thickTop="1">
-      <c r="A46" s="103" t="s">
+      <c r="A46" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="117" t="s">
+      <c r="B46" s="108" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="9" t="s">
@@ -2827,16 +2827,16 @@
       <c r="E46" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="97">
+      <c r="F46" s="78">
         <v>5</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A47" s="105"/>
-      <c r="B47" s="118"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="109"/>
       <c r="C47" s="30" t="s">
         <v>80</v>
       </c>
@@ -2846,14 +2846,14 @@
       <c r="E47" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="98"/>
-      <c r="G47" s="80"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="147"/>
     </row>
     <row r="48" spans="1:7" ht="34.200000000000003" customHeight="1" thickTop="1">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="11" t="s">
@@ -2865,16 +2865,16 @@
       <c r="E48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="92">
+      <c r="F48" s="82">
         <v>5</v>
       </c>
-      <c r="G48" s="85">
+      <c r="G48" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="42" customHeight="1" thickBot="1">
-      <c r="A49" s="101"/>
-      <c r="B49" s="109"/>
+      <c r="A49" s="105"/>
+      <c r="B49" s="107"/>
       <c r="C49" s="59" t="s">
         <v>82</v>
       </c>
@@ -2884,14 +2884,14 @@
       <c r="E49" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="93"/>
-      <c r="G49" s="82"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="148"/>
     </row>
     <row r="50" spans="1:7" ht="37.200000000000003" customHeight="1" thickTop="1">
-      <c r="A50" s="103" t="s">
+      <c r="A50" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="117" t="s">
+      <c r="B50" s="108" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -2903,16 +2903,16 @@
       <c r="E50" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="97">
+      <c r="F50" s="78">
         <v>6</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="39.6" customHeight="1" thickBot="1">
-      <c r="A51" s="105"/>
-      <c r="B51" s="118"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="109"/>
       <c r="C51" s="30" t="s">
         <v>84</v>
       </c>
@@ -2922,14 +2922,14 @@
       <c r="E51" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="98"/>
-      <c r="G51" s="80"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="147"/>
     </row>
     <row r="52" spans="1:7" ht="41.4" customHeight="1" thickTop="1">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="107" t="s">
+      <c r="B52" s="106" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -2941,16 +2941,16 @@
       <c r="E52" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F52" s="92">
+      <c r="F52" s="82">
         <v>5</v>
       </c>
-      <c r="G52" s="85">
+      <c r="G52" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A53" s="101"/>
-      <c r="B53" s="109"/>
+      <c r="A53" s="105"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="59" t="s">
         <v>78</v>
       </c>
@@ -2960,11 +2960,11 @@
       <c r="E53" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F53" s="93"/>
-      <c r="G53" s="82"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="148"/>
     </row>
     <row r="54" spans="1:7" ht="46.2" customHeight="1" thickTop="1">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="90" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -2979,16 +2979,16 @@
       <c r="E54" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F54" s="97">
+      <c r="F54" s="78">
         <v>5</v>
       </c>
-      <c r="G54" s="84">
+      <c r="G54" s="135">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="36" customHeight="1">
-      <c r="A55" s="104"/>
-      <c r="B55" s="112" t="s">
+      <c r="A55" s="125"/>
+      <c r="B55" s="127" t="s">
         <v>89</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -3000,12 +3000,12 @@
       <c r="E55" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F55" s="106"/>
-      <c r="G55" s="79"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="149"/>
     </row>
     <row r="56" spans="1:7" ht="36" customHeight="1">
-      <c r="A56" s="104"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="10" t="s">
         <v>87</v>
       </c>
@@ -3015,12 +3015,12 @@
       <c r="E56" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F56" s="106"/>
-      <c r="G56" s="79"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="149"/>
     </row>
     <row r="57" spans="1:7" ht="41.4" customHeight="1" thickBot="1">
-      <c r="A57" s="115"/>
-      <c r="B57" s="113"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="14" t="s">
         <v>88</v>
       </c>
@@ -3030,14 +3030,14 @@
       <c r="E57" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F57" s="116"/>
-      <c r="G57" s="80"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="147"/>
     </row>
     <row r="58" spans="1:7" ht="34.200000000000003" customHeight="1" thickTop="1">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="107" t="s">
+      <c r="B58" s="106" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="11" t="s">
@@ -3049,16 +3049,16 @@
       <c r="E58" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="92">
+      <c r="F58" s="82">
         <v>5</v>
       </c>
-      <c r="G58" s="85">
+      <c r="G58" s="132">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="34.200000000000003" customHeight="1">
-      <c r="A59" s="100"/>
-      <c r="B59" s="108"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="111"/>
       <c r="C59" s="12" t="s">
         <v>92</v>
       </c>
@@ -3068,12 +3068,12 @@
       <c r="E59" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="102"/>
-      <c r="G59" s="83"/>
+      <c r="F59" s="139"/>
+      <c r="G59" s="150"/>
     </row>
     <row r="60" spans="1:7" ht="34.200000000000003" customHeight="1">
-      <c r="A60" s="100"/>
-      <c r="B60" s="108" t="s">
+      <c r="A60" s="138"/>
+      <c r="B60" s="111" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -3085,12 +3085,12 @@
       <c r="E60" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="102"/>
-      <c r="G60" s="83"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="150"/>
     </row>
     <row r="61" spans="1:7" ht="34.200000000000003" customHeight="1">
-      <c r="A61" s="100"/>
-      <c r="B61" s="108"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="12" t="s">
         <v>93</v>
       </c>
@@ -3100,12 +3100,12 @@
       <c r="E61" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="102"/>
-      <c r="G61" s="83"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="150"/>
     </row>
     <row r="62" spans="1:7" ht="35.4" customHeight="1" thickBot="1">
-      <c r="A62" s="101"/>
-      <c r="B62" s="109"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="59" t="s">
         <v>95</v>
       </c>
@@ -3115,14 +3115,14 @@
       <c r="E62" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F62" s="93"/>
-      <c r="G62" s="82"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="148"/>
     </row>
     <row r="63" spans="1:7" ht="39.6" customHeight="1" thickTop="1">
-      <c r="A63" s="103" t="s">
+      <c r="A63" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="110" t="s">
+      <c r="B63" s="140" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="9" t="s">
@@ -3134,16 +3134,16 @@
       <c r="E63" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="97">
+      <c r="F63" s="78">
         <v>6</v>
       </c>
-      <c r="G63" s="84">
+      <c r="G63" s="135">
         <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A64" s="104"/>
-      <c r="B64" s="111"/>
+      <c r="A64" s="125"/>
+      <c r="B64" s="141"/>
       <c r="C64" s="46" t="s">
         <v>92</v>
       </c>
@@ -3153,12 +3153,12 @@
       <c r="E64" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="106"/>
-      <c r="G64" s="78"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="153"/>
     </row>
     <row r="65" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A65" s="104"/>
-      <c r="B65" s="112" t="s">
+      <c r="A65" s="125"/>
+      <c r="B65" s="127" t="s">
         <v>96</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -3170,14 +3170,14 @@
       <c r="E65" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="106"/>
-      <c r="G65" s="153">
+      <c r="F65" s="130"/>
+      <c r="G65" s="154">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A66" s="104"/>
-      <c r="B66" s="113"/>
+      <c r="A66" s="125"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="10" t="s">
         <v>98</v>
       </c>
@@ -3187,12 +3187,12 @@
       <c r="E66" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="106"/>
-      <c r="G66" s="79"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="149"/>
     </row>
     <row r="67" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A67" s="104"/>
-      <c r="B67" s="113"/>
+      <c r="A67" s="125"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="14" t="s">
         <v>99</v>
       </c>
@@ -3202,12 +3202,12 @@
       <c r="E67" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="106"/>
-      <c r="G67" s="79"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="149"/>
     </row>
     <row r="68" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A68" s="105"/>
-      <c r="B68" s="114"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="30" t="s">
         <v>100</v>
       </c>
@@ -3217,14 +3217,14 @@
       <c r="E68" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="98"/>
-      <c r="G68" s="80"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="147"/>
     </row>
     <row r="69" spans="1:7" ht="33.6" customHeight="1" thickTop="1">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="B69" s="148" t="s">
+      <c r="B69" s="102" t="s">
         <v>131</v>
       </c>
       <c r="C69" s="11" t="s">
@@ -3236,16 +3236,16 @@
       <c r="E69" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F69" s="86">
+      <c r="F69" s="142">
         <v>5</v>
       </c>
-      <c r="G69" s="85">
+      <c r="G69" s="132">
         <v>0.5</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="31.8" customHeight="1">
-      <c r="A70" s="147"/>
-      <c r="B70" s="149"/>
+      <c r="A70" s="86"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="12" t="s">
         <v>132</v>
       </c>
@@ -3255,12 +3255,12 @@
       <c r="E70" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="94"/>
-      <c r="G70" s="83"/>
+      <c r="F70" s="144"/>
+      <c r="G70" s="150"/>
     </row>
     <row r="71" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A71" s="91"/>
-      <c r="B71" s="150"/>
+      <c r="A71" s="87"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="59" t="s">
         <v>134</v>
       </c>
@@ -3270,14 +3270,14 @@
       <c r="E71" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F71" s="87"/>
-      <c r="G71" s="82"/>
+      <c r="F71" s="143"/>
+      <c r="G71" s="148"/>
     </row>
     <row r="72" spans="1:7" ht="36" customHeight="1" thickTop="1">
-      <c r="A72" s="95" t="s">
+      <c r="A72" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="B72" s="151" t="s">
+      <c r="B72" s="88" t="s">
         <v>131</v>
       </c>
       <c r="C72" s="9" t="s">
@@ -3289,16 +3289,16 @@
       <c r="E72" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F72" s="88">
+      <c r="F72" s="145">
         <v>5</v>
       </c>
-      <c r="G72" s="84">
+      <c r="G72" s="135">
         <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="42" customHeight="1" thickBot="1">
-      <c r="A73" s="96"/>
-      <c r="B73" s="152"/>
+      <c r="A73" s="81"/>
+      <c r="B73" s="89"/>
       <c r="C73" s="30" t="s">
         <v>136</v>
       </c>
@@ -3308,8 +3308,8 @@
       <c r="E73" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="89"/>
-      <c r="G73" s="80"/>
+      <c r="F73" s="146"/>
+      <c r="G73" s="147"/>
     </row>
     <row r="74" spans="1:7" ht="49.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A74" s="66" t="s">
@@ -3335,10 +3335,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="37.799999999999997" customHeight="1" thickTop="1">
-      <c r="A75" s="95" t="s">
+      <c r="A75" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="151" t="s">
+      <c r="B75" s="88" t="s">
         <v>139</v>
       </c>
       <c r="C75" s="9" t="s">
@@ -3350,16 +3350,16 @@
       <c r="E75" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F75" s="88">
+      <c r="F75" s="145">
         <v>5</v>
       </c>
-      <c r="G75" s="84">
+      <c r="G75" s="135">
         <v>0.75</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A76" s="96"/>
-      <c r="B76" s="152"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="89"/>
       <c r="C76" s="30" t="s">
         <v>141</v>
       </c>
@@ -3369,8 +3369,8 @@
       <c r="E76" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="89"/>
-      <c r="G76" s="80"/>
+      <c r="F76" s="146"/>
+      <c r="G76" s="147"/>
     </row>
     <row r="77" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1">
       <c r="A77" s="66" t="s">
@@ -3465,10 +3465,10 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.6" customHeight="1" thickTop="1">
-      <c r="A81" s="90" t="s">
+      <c r="A81" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="82" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="11" t="s">
@@ -3480,14 +3480,14 @@
       <c r="E81" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="86">
+      <c r="F81" s="142">
         <v>5</v>
       </c>
-      <c r="G81" s="81"/>
+      <c r="G81" s="151"/>
     </row>
     <row r="82" spans="1:7" ht="47.4" customHeight="1" thickBot="1">
-      <c r="A82" s="91"/>
-      <c r="B82" s="93"/>
+      <c r="A82" s="87"/>
+      <c r="B82" s="84"/>
       <c r="C82" s="59" t="s">
         <v>147</v>
       </c>
@@ -3497,14 +3497,14 @@
       <c r="E82" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="87"/>
-      <c r="G82" s="82"/>
+      <c r="F82" s="143"/>
+      <c r="G82" s="148"/>
     </row>
     <row r="83" spans="1:7" ht="38.4" customHeight="1" thickTop="1">
-      <c r="A83" s="95" t="s">
+      <c r="A83" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B83" s="97" t="s">
+      <c r="B83" s="78" t="s">
         <v>148</v>
       </c>
       <c r="C83" s="9" t="s">
@@ -3516,14 +3516,14 @@
       <c r="E83" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F83" s="88">
+      <c r="F83" s="145">
         <v>5</v>
       </c>
-      <c r="G83" s="77"/>
+      <c r="G83" s="152"/>
     </row>
     <row r="84" spans="1:7" ht="46.8" customHeight="1" thickBot="1">
-      <c r="A84" s="96"/>
-      <c r="B84" s="98"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="79"/>
       <c r="C84" s="30" t="s">
         <v>150</v>
       </c>
@@ -3533,14 +3533,14 @@
       <c r="E84" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F84" s="89"/>
-      <c r="G84" s="80"/>
+      <c r="F84" s="146"/>
+      <c r="G84" s="147"/>
     </row>
     <row r="85" spans="1:7" ht="33.6" customHeight="1" thickTop="1">
-      <c r="A85" s="90" t="s">
+      <c r="A85" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="82" t="s">
         <v>151</v>
       </c>
       <c r="C85" s="11" t="s">
@@ -3552,14 +3552,14 @@
       <c r="E85" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="86">
+      <c r="F85" s="142">
         <v>5</v>
       </c>
-      <c r="G85" s="81"/>
+      <c r="G85" s="151"/>
     </row>
     <row r="86" spans="1:7" ht="34.799999999999997" customHeight="1" thickBot="1">
-      <c r="A86" s="91"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="87"/>
+      <c r="B86" s="84"/>
       <c r="C86" s="59" t="s">
         <v>150</v>
       </c>
@@ -3569,14 +3569,14 @@
       <c r="E86" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F86" s="87"/>
-      <c r="G86" s="82"/>
+      <c r="F86" s="143"/>
+      <c r="G86" s="148"/>
     </row>
     <row r="87" spans="1:7" ht="36.6" customHeight="1" thickTop="1">
-      <c r="A87" s="95" t="s">
+      <c r="A87" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="97" t="s">
+      <c r="B87" s="78" t="s">
         <v>152</v>
       </c>
       <c r="C87" s="9" t="s">
@@ -3588,14 +3588,14 @@
       <c r="E87" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F87" s="88">
+      <c r="F87" s="145">
         <v>5</v>
       </c>
-      <c r="G87" s="77"/>
+      <c r="G87" s="152"/>
     </row>
     <row r="88" spans="1:7" ht="34.200000000000003" customHeight="1" thickBot="1">
-      <c r="A88" s="96"/>
-      <c r="B88" s="98"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="79"/>
       <c r="C88" s="30" t="s">
         <v>150</v>
       </c>
@@ -3605,14 +3605,14 @@
       <c r="E88" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="89"/>
-      <c r="G88" s="80"/>
+      <c r="F88" s="146"/>
+      <c r="G88" s="147"/>
     </row>
     <row r="89" spans="1:7" ht="33.6" customHeight="1" thickTop="1">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="82" t="s">
         <v>153</v>
       </c>
       <c r="C89" s="11" t="s">
@@ -3624,14 +3624,14 @@
       <c r="E89" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F89" s="86">
+      <c r="F89" s="142">
         <v>5</v>
       </c>
-      <c r="G89" s="81"/>
+      <c r="G89" s="151"/>
     </row>
     <row r="90" spans="1:7" ht="40.799999999999997" customHeight="1" thickBot="1">
-      <c r="A90" s="91"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="87"/>
+      <c r="B90" s="84"/>
       <c r="C90" s="59" t="s">
         <v>150</v>
       </c>
@@ -3641,8 +3641,8 @@
       <c r="E90" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F90" s="87"/>
-      <c r="G90" s="82"/>
+      <c r="F90" s="143"/>
+      <c r="G90" s="148"/>
     </row>
     <row r="91" spans="1:7" ht="49.8" customHeight="1" thickTop="1" thickBot="1">
       <c r="A91" s="69" t="s">
@@ -3663,13 +3663,13 @@
       <c r="F91" s="70">
         <v>5</v>
       </c>
-      <c r="G91" s="154"/>
+      <c r="G91" s="77"/>
     </row>
     <row r="92" spans="1:7" ht="42" customHeight="1" thickTop="1">
-      <c r="A92" s="90" t="s">
+      <c r="A92" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="82" t="s">
         <v>159</v>
       </c>
       <c r="C92" s="11" t="s">
@@ -3681,14 +3681,14 @@
       <c r="E92" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="86">
+      <c r="F92" s="142">
         <v>5</v>
       </c>
-      <c r="G92" s="81"/>
+      <c r="G92" s="151"/>
     </row>
     <row r="93" spans="1:7" ht="40.200000000000003" customHeight="1" thickBot="1">
-      <c r="A93" s="91"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="87"/>
+      <c r="B93" s="84"/>
       <c r="C93" s="59" t="s">
         <v>158</v>
       </c>
@@ -3698,8 +3698,8 @@
       <c r="E93" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F93" s="87"/>
-      <c r="G93" s="82"/>
+      <c r="F93" s="143"/>
+      <c r="G93" s="148"/>
     </row>
     <row r="94" spans="1:7" ht="49.2" customHeight="1" thickTop="1" thickBot="1">
       <c r="A94" s="69" t="s">
@@ -3720,13 +3720,13 @@
       <c r="F94" s="70">
         <v>5</v>
       </c>
-      <c r="G94" s="154"/>
+      <c r="G94" s="77"/>
     </row>
     <row r="95" spans="1:7" ht="34.799999999999997" customHeight="1" thickTop="1">
-      <c r="A95" s="90" t="s">
+      <c r="A95" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="82" t="s">
         <v>162</v>
       </c>
       <c r="C95" s="11" t="s">
@@ -3738,14 +3738,14 @@
       <c r="E95" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="86">
+      <c r="F95" s="142">
         <v>5</v>
       </c>
-      <c r="G95" s="81"/>
+      <c r="G95" s="151"/>
     </row>
     <row r="96" spans="1:7" ht="43.8" customHeight="1" thickBot="1">
-      <c r="A96" s="91"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="87"/>
+      <c r="B96" s="84"/>
       <c r="C96" s="59" t="s">
         <v>164</v>
       </c>
@@ -3755,8 +3755,8 @@
       <c r="E96" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F96" s="87"/>
-      <c r="G96" s="82"/>
+      <c r="F96" s="143"/>
+      <c r="G96" s="148"/>
     </row>
     <row r="97" spans="1:7" ht="54" customHeight="1" thickTop="1" thickBot="1">
       <c r="A97" s="69" t="s">
@@ -3777,13 +3777,13 @@
       <c r="F97" s="70">
         <v>5</v>
       </c>
-      <c r="G97" s="154"/>
+      <c r="G97" s="77"/>
     </row>
     <row r="98" spans="1:7" ht="43.2" customHeight="1" thickTop="1">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="82" t="s">
         <v>167</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -3795,14 +3795,14 @@
       <c r="E98" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F98" s="86">
+      <c r="F98" s="142">
         <v>5</v>
       </c>
-      <c r="G98" s="81"/>
+      <c r="G98" s="151"/>
     </row>
     <row r="99" spans="1:7" ht="43.8" customHeight="1">
-      <c r="A99" s="147"/>
-      <c r="B99" s="122"/>
+      <c r="A99" s="86"/>
+      <c r="B99" s="83"/>
       <c r="C99" s="12" t="s">
         <v>169</v>
       </c>
@@ -3812,12 +3812,12 @@
       <c r="E99" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F99" s="94"/>
-      <c r="G99" s="83"/>
+      <c r="F99" s="144"/>
+      <c r="G99" s="150"/>
     </row>
     <row r="100" spans="1:7" ht="40.799999999999997" customHeight="1" thickBot="1">
-      <c r="A100" s="91"/>
-      <c r="B100" s="93"/>
+      <c r="A100" s="87"/>
+      <c r="B100" s="84"/>
       <c r="C100" s="59" t="s">
         <v>170</v>
       </c>
@@ -3827,14 +3827,14 @@
       <c r="E100" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F100" s="87"/>
-      <c r="G100" s="82"/>
+      <c r="F100" s="143"/>
+      <c r="G100" s="148"/>
     </row>
     <row r="101" spans="1:7" ht="42.6" customHeight="1" thickTop="1">
-      <c r="A101" s="95" t="s">
+      <c r="A101" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="97" t="s">
+      <c r="B101" s="78" t="s">
         <v>171</v>
       </c>
       <c r="C101" s="9" t="s">
@@ -3846,14 +3846,14 @@
       <c r="E101" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F101" s="88">
+      <c r="F101" s="145">
         <v>5</v>
       </c>
-      <c r="G101" s="77"/>
+      <c r="G101" s="152"/>
     </row>
     <row r="102" spans="1:7" ht="54" customHeight="1" thickBot="1">
-      <c r="A102" s="96"/>
-      <c r="B102" s="98"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="79"/>
       <c r="C102" s="30" t="s">
         <v>173</v>
       </c>
@@ -3863,14 +3863,14 @@
       <c r="E102" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F102" s="89"/>
-      <c r="G102" s="80"/>
+      <c r="F102" s="146"/>
+      <c r="G102" s="147"/>
     </row>
     <row r="103" spans="1:7" ht="42" customHeight="1" thickTop="1">
-      <c r="A103" s="90" t="s">
+      <c r="A103" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="82" t="s">
         <v>174</v>
       </c>
       <c r="C103" s="11" t="s">
@@ -3882,14 +3882,14 @@
       <c r="E103" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F103" s="86">
+      <c r="F103" s="142">
         <v>5</v>
       </c>
-      <c r="G103" s="81"/>
+      <c r="G103" s="151"/>
     </row>
     <row r="104" spans="1:7" ht="42.6" customHeight="1">
-      <c r="A104" s="147"/>
-      <c r="B104" s="122"/>
+      <c r="A104" s="86"/>
+      <c r="B104" s="83"/>
       <c r="C104" s="12" t="s">
         <v>176</v>
       </c>
@@ -3899,12 +3899,12 @@
       <c r="E104" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F104" s="94"/>
-      <c r="G104" s="83"/>
+      <c r="F104" s="144"/>
+      <c r="G104" s="150"/>
     </row>
     <row r="105" spans="1:7" ht="51" customHeight="1" thickBot="1">
-      <c r="A105" s="91"/>
-      <c r="B105" s="93"/>
+      <c r="A105" s="87"/>
+      <c r="B105" s="84"/>
       <c r="C105" s="59" t="s">
         <v>177</v>
       </c>
@@ -3914,14 +3914,14 @@
       <c r="E105" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F105" s="87"/>
-      <c r="G105" s="82"/>
+      <c r="F105" s="143"/>
+      <c r="G105" s="148"/>
     </row>
     <row r="106" spans="1:7" ht="40.200000000000003" customHeight="1" thickTop="1">
-      <c r="A106" s="95" t="s">
+      <c r="A106" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="97" t="s">
+      <c r="B106" s="78" t="s">
         <v>174</v>
       </c>
       <c r="C106" s="9" t="s">
@@ -3933,14 +3933,14 @@
       <c r="E106" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F106" s="88">
+      <c r="F106" s="145">
         <v>5</v>
       </c>
-      <c r="G106" s="77"/>
+      <c r="G106" s="152"/>
     </row>
     <row r="107" spans="1:7" ht="47.4" customHeight="1" thickBot="1">
-      <c r="A107" s="96"/>
-      <c r="B107" s="98"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="79"/>
       <c r="C107" s="30" t="s">
         <v>179</v>
       </c>
@@ -3950,14 +3950,14 @@
       <c r="E107" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F107" s="89"/>
-      <c r="G107" s="80"/>
+      <c r="F107" s="146"/>
+      <c r="G107" s="147"/>
     </row>
     <row r="108" spans="1:7" ht="44.4" customHeight="1" thickTop="1">
-      <c r="A108" s="90" t="s">
+      <c r="A108" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="82" t="s">
         <v>180</v>
       </c>
       <c r="C108" s="11" t="s">
@@ -3969,14 +3969,14 @@
       <c r="E108" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F108" s="86">
+      <c r="F108" s="142">
         <v>5</v>
       </c>
-      <c r="G108" s="81"/>
+      <c r="G108" s="151"/>
     </row>
     <row r="109" spans="1:7" ht="52.8" customHeight="1" thickBot="1">
-      <c r="A109" s="91"/>
-      <c r="B109" s="93"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="84"/>
       <c r="C109" s="59" t="s">
         <v>147</v>
       </c>
@@ -3986,14 +3986,14 @@
       <c r="E109" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F109" s="87"/>
-      <c r="G109" s="82"/>
+      <c r="F109" s="143"/>
+      <c r="G109" s="148"/>
     </row>
     <row r="110" spans="1:7" ht="39" customHeight="1" thickTop="1">
-      <c r="A110" s="95" t="s">
+      <c r="A110" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B110" s="97" t="s">
+      <c r="B110" s="78" t="s">
         <v>181</v>
       </c>
       <c r="C110" s="9" t="s">
@@ -4005,14 +4005,14 @@
       <c r="E110" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F110" s="88">
+      <c r="F110" s="145">
         <v>5</v>
       </c>
-      <c r="G110" s="77"/>
+      <c r="G110" s="152"/>
     </row>
     <row r="111" spans="1:7" ht="41.4" customHeight="1" thickBot="1">
-      <c r="A111" s="96"/>
-      <c r="B111" s="98"/>
+      <c r="A111" s="81"/>
+      <c r="B111" s="79"/>
       <c r="C111" s="30" t="s">
         <v>183</v>
       </c>
@@ -4022,14 +4022,14 @@
       <c r="E111" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="89"/>
-      <c r="G111" s="80"/>
+      <c r="F111" s="146"/>
+      <c r="G111" s="147"/>
     </row>
     <row r="112" spans="1:7" ht="38.4" customHeight="1" thickTop="1">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="B112" s="92" t="s">
+      <c r="B112" s="82" t="s">
         <v>181</v>
       </c>
       <c r="C112" s="11" t="s">
@@ -4041,14 +4041,14 @@
       <c r="E112" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F112" s="86">
+      <c r="F112" s="142">
         <v>5</v>
       </c>
-      <c r="G112" s="81"/>
+      <c r="G112" s="151"/>
     </row>
     <row r="113" spans="1:7" ht="43.8" customHeight="1" thickBot="1">
-      <c r="A113" s="91"/>
-      <c r="B113" s="93"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="84"/>
       <c r="C113" s="59" t="s">
         <v>185</v>
       </c>
@@ -4058,14 +4058,14 @@
       <c r="E113" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F113" s="87"/>
-      <c r="G113" s="82"/>
+      <c r="F113" s="143"/>
+      <c r="G113" s="148"/>
     </row>
     <row r="114" spans="1:7" ht="38.4" customHeight="1" thickTop="1">
-      <c r="A114" s="95" t="s">
+      <c r="A114" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="B114" s="97" t="s">
+      <c r="B114" s="78" t="s">
         <v>186</v>
       </c>
       <c r="C114" s="9" t="s">
@@ -4077,14 +4077,14 @@
       <c r="E114" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F114" s="88">
+      <c r="F114" s="145">
         <v>5</v>
       </c>
-      <c r="G114" s="77"/>
+      <c r="G114" s="152"/>
     </row>
     <row r="115" spans="1:7" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A115" s="96"/>
-      <c r="B115" s="98"/>
+      <c r="A115" s="81"/>
+      <c r="B115" s="79"/>
       <c r="C115" s="30" t="s">
         <v>183</v>
       </c>
@@ -4094,14 +4094,14 @@
       <c r="E115" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F115" s="89"/>
-      <c r="G115" s="80"/>
+      <c r="F115" s="146"/>
+      <c r="G115" s="147"/>
     </row>
     <row r="116" spans="1:7" ht="37.799999999999997" customHeight="1" thickTop="1">
-      <c r="A116" s="90" t="s">
+      <c r="A116" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="B116" s="92" t="s">
+      <c r="B116" s="82" t="s">
         <v>186</v>
       </c>
       <c r="C116" s="11" t="s">
@@ -4113,14 +4113,14 @@
       <c r="E116" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F116" s="86">
+      <c r="F116" s="142">
         <v>5</v>
       </c>
-      <c r="G116" s="81"/>
+      <c r="G116" s="151"/>
     </row>
     <row r="117" spans="1:7" ht="45" customHeight="1" thickBot="1">
-      <c r="A117" s="91"/>
-      <c r="B117" s="93"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="84"/>
       <c r="C117" s="59" t="s">
         <v>185</v>
       </c>
@@ -4130,14 +4130,18 @@
       <c r="E117" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="F117" s="87"/>
-      <c r="G117" s="82"/>
+      <c r="F117" s="143"/>
+      <c r="G117" s="148"/>
     </row>
     <row r="118" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
       <c r="B118" s="3"/>
       <c r="C118" s="62"/>
       <c r="D118" s="62"/>
       <c r="E118" s="62"/>
+      <c r="F118" s="61">
+        <f>SUM(F9:F117)</f>
+        <v>260</v>
+      </c>
       <c r="G118" s="3"/>
     </row>
     <row r="119" spans="1:7" ht="16.5" customHeight="1">
@@ -10526,89 +10530,45 @@
     </row>
   </sheetData>
   <mergeCells count="146">
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="F32:F36"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="F58:F62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="G106:G107"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="G110:G111"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="F110:F111"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="G69:G71"/>
     <mergeCell ref="F116:F117"/>
     <mergeCell ref="A116:A117"/>
     <mergeCell ref="B116:B117"/>
@@ -10633,45 +10593,89 @@
     <mergeCell ref="B114:B115"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="F110:F111"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="G110:G111"/>
-    <mergeCell ref="G112:G113"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="F58:F62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="F32:F36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/CRONOGRAMA/Itinerario.xlsx
+++ b/CRONOGRAMA/Itinerario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\PPP\PPP-NRC24421\CRONOGRAMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE794DC-BE4D-49C1-812A-B071A71BFD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C94704-C0E3-4E97-9041-F8F16536C291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110:B111"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
